--- a/BOM/v5.1迷你浇水控制器物料清单.xlsx
+++ b/BOM/v5.1迷你浇水控制器物料清单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,14 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电阻47K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电阻56K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电阻73.2K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,139 +82,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>电容22UF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6P简易型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1%精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArduinoProMini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二极管SS36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND开头的版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96"OLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4A5在中间的版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch340下载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x4x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土壤湿度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电容型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机驱动芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂电池充电芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX-1308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC升压芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片USB-3.1插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDRH74R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蠕动泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电感4.7UH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻100K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电容15PF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>电容10UF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电容22UF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE-C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6P简易型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1%精度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArduinoProMini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二极管SS36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GND开头的版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.96"OLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A4A5在中间的版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch340下载器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4x4x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土壤湿度传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电容型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机驱动芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锂电池充电芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SX-1308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT23-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC-DC升压芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片USB-3.1插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDRH74R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蠕动泵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电感4.7UH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电容15PF</t>
+    <t>电容47UF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电解电容4*5.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,20 +310,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>5581</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>264950</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367565</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>7684</xdr:rowOff>
+      <xdr:rowOff>15368</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -332,8 +336,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7497514" y="0"/>
-          <a:ext cx="3332982" cy="3327187"/>
+          <a:off x="1" y="0"/>
+          <a:ext cx="3441177" cy="3334871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -344,20 +348,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15368</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>491780</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542429</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>182416</xdr:rowOff>
+      <xdr:rowOff>184416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -370,8 +374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="0"/>
-          <a:ext cx="3565392" cy="3317502"/>
+          <a:off x="7507301" y="0"/>
+          <a:ext cx="3600674" cy="3319502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,7 +653,7 @@
   <dimension ref="G1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -665,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="7:10" x14ac:dyDescent="0.25">
@@ -679,13 +683,13 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="7:10" x14ac:dyDescent="0.25">
@@ -693,77 +697,74 @@
         <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -771,10 +772,10 @@
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
@@ -782,13 +783,13 @@
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="7:10" x14ac:dyDescent="0.25">
@@ -796,32 +797,35 @@
         <v>49</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -829,121 +833,121 @@
     </row>
     <row r="14" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G22" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -951,10 +955,10 @@
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I24" s="1">
         <v>30</v>
@@ -962,10 +966,10 @@
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I25" s="1">
         <v>7</v>
